--- a/outputs/p__Firmicutes_A.xlsx
+++ b/outputs/p__Firmicutes_A.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="g__Prevotella-t" sheetId="1" state="visible" r:id="rId1"/>
@@ -63,18 +63,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3133,7 +3133,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3143,7 +3143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3177,6 +3177,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3201,6 +3206,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3225,6 +3235,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3249,6 +3264,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3273,6 +3293,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3297,6 +3322,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3321,6 +3351,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3345,6 +3380,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3369,6 +3409,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3393,6 +3438,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3417,6 +3467,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3441,6 +3496,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3465,6 +3525,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3489,6 +3554,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3513,6 +3583,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3537,6 +3612,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3561,6 +3641,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3585,6 +3670,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3609,6 +3699,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3633,6 +3728,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -3657,6 +3757,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -3681,6 +3786,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -3705,6 +3815,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -3729,6 +3844,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -3753,6 +3873,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -3777,6 +3902,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -3801,6 +3931,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -3825,6 +3960,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -3849,6 +3989,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -3873,6 +4018,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -3897,6 +4047,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -3921,6 +4076,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -3945,6 +4105,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -3969,6 +4134,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -3993,6 +4163,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -4017,6 +4192,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -4041,6 +4221,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -4065,6 +4250,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -4089,6 +4279,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -4113,6 +4308,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -4137,6 +4337,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -4161,6 +4366,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -4185,6 +4395,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -4209,6 +4424,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -4233,6 +4453,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -4257,6 +4482,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -4281,6 +4511,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -4305,6 +4540,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -4329,6 +4569,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -4353,6 +4598,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -4377,6 +4627,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -4401,6 +4656,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -4425,6 +4685,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -4449,6 +4714,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -4473,6 +4743,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -4497,6 +4772,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -4521,6 +4801,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -4545,6 +4830,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -4569,9 +4859,14 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5704,7 +5999,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -6480,7 +6775,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -9272,7 +9567,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -10531,7 +10826,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -10541,7 +10836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10575,6 +10870,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -10599,6 +10899,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -10623,6 +10928,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -10647,6 +10957,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -10671,6 +10986,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -10695,6 +11015,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -10719,6 +11044,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -10743,6 +11073,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -10767,6 +11102,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -10791,6 +11131,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -10815,6 +11160,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -10839,6 +11189,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -10863,6 +11218,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -10887,6 +11247,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -10911,6 +11276,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -10935,6 +11305,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -10959,6 +11334,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -10983,6 +11363,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -11007,6 +11392,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -11031,6 +11421,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -11055,6 +11450,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -11079,6 +11479,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -11103,6 +11508,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -11127,6 +11537,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -11151,6 +11566,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -11175,6 +11595,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -11199,6 +11624,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -11223,6 +11653,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -11247,6 +11682,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -11271,6 +11711,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -11295,6 +11740,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -11319,6 +11769,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -11343,6 +11798,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -11367,6 +11827,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -11391,6 +11856,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -11415,6 +11885,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -11439,6 +11914,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -11463,6 +11943,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -11487,6 +11972,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -11511,6 +12001,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -11535,6 +12030,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -11559,6 +12059,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -11583,6 +12088,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -11607,6 +12117,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -11631,6 +12146,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -11655,6 +12175,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -11679,6 +12204,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -11703,6 +12233,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -11727,6 +12262,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -11751,6 +12291,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -11775,6 +12320,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -11799,6 +12349,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -11823,6 +12378,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -11847,6 +12407,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -11871,6 +12436,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -11895,6 +12465,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -11919,6 +12494,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -11943,6 +12523,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -11967,6 +12552,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -11991,6 +12581,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -12015,6 +12610,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -12039,6 +12639,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -12063,6 +12668,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -12087,6 +12697,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -12111,6 +12726,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -12135,6 +12755,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -12159,6 +12784,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -12183,6 +12813,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -12207,6 +12842,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -12231,6 +12871,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -12255,6 +12900,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -12279,6 +12929,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -12303,6 +12958,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -12327,6 +12987,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -12351,6 +13016,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -12375,6 +13045,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -12399,6 +13074,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -12423,6 +13103,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -12447,6 +13132,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -12471,6 +13161,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -12495,6 +13190,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -12519,6 +13219,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -12543,6 +13248,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -12567,6 +13277,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -12591,6 +13306,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -12615,6 +13335,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -12639,6 +13364,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -12663,6 +13393,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -12687,6 +13422,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -12711,6 +13451,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -12735,6 +13480,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -12759,6 +13509,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -12783,6 +13538,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -12807,6 +13567,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -12831,6 +13596,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -12855,6 +13625,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -12879,6 +13654,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -12903,6 +13683,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -12927,6 +13712,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -12951,6 +13741,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -12975,6 +13770,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -12999,6 +13799,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -13023,6 +13828,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -13047,6 +13857,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -13071,6 +13886,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -13095,6 +13915,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -13119,6 +13944,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -13143,6 +13973,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -13167,6 +14002,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -13191,6 +14031,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -13215,6 +14060,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -13239,6 +14089,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -13263,6 +14118,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -13287,6 +14147,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -13311,6 +14176,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -13335,6 +14205,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -13359,6 +14234,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -13383,6 +14263,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -13407,6 +14292,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -13431,6 +14321,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -13455,6 +14350,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -13479,6 +14379,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -13503,6 +14408,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -13527,6 +14437,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -13551,6 +14466,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -13575,6 +14495,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -13599,6 +14524,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -13623,9 +14553,14 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -13635,7 +14570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13669,6 +14604,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -13693,6 +14633,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -13717,6 +14662,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -13741,6 +14691,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -13765,6 +14720,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -13789,6 +14749,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -13813,6 +14778,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -13837,6 +14807,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -13861,6 +14836,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -13885,6 +14865,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -13909,6 +14894,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -13933,6 +14923,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -13957,6 +14952,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -13981,6 +14981,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -14005,6 +15010,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -14029,6 +15039,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -14053,6 +15068,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -14077,6 +15097,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -14101,6 +15126,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -14125,6 +15155,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -14149,6 +15184,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -14173,6 +15213,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -14197,6 +15242,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -14221,6 +15271,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -14245,6 +15300,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -14269,6 +15329,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -14293,6 +15358,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -14317,6 +15387,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -14341,6 +15416,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -14365,6 +15445,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -14389,6 +15474,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -14413,6 +15503,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -14437,6 +15532,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -14461,6 +15561,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -14485,6 +15590,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -14509,6 +15619,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -14533,6 +15648,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -14557,6 +15677,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -14581,6 +15706,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -14605,6 +15735,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -14629,6 +15764,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -14653,6 +15793,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -14677,6 +15822,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -14701,6 +15851,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -14725,6 +15880,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -14749,6 +15909,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -14773,6 +15938,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -14797,6 +15967,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -14821,6 +15996,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -14845,6 +16025,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -14869,6 +16054,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -14893,6 +16083,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -14917,9 +16112,14 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -14929,7 +16129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14963,6 +16163,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -14987,6 +16192,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -15011,6 +16221,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -15035,6 +16250,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -15059,6 +16279,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -15083,6 +16308,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -15107,6 +16337,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -15131,6 +16366,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -15155,6 +16395,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -15179,6 +16424,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -15203,6 +16453,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -15227,6 +16482,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -15251,6 +16511,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -15275,6 +16540,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -15299,6 +16569,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -15323,6 +16598,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -15347,6 +16627,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -15371,6 +16656,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -15395,6 +16685,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -15419,6 +16714,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -15443,6 +16743,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -15467,6 +16772,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -15491,6 +16801,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -15515,6 +16830,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -15539,6 +16859,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -15563,6 +16888,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -15587,6 +16917,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -15611,6 +16946,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -15635,6 +16975,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -15659,6 +17004,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -15683,6 +17033,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -15707,6 +17062,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -15731,6 +17091,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -15755,6 +17120,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -15779,6 +17149,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -15803,9 +17178,14 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -15815,7 +17195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15849,6 +17229,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -15873,6 +17258,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -15897,6 +17287,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -15921,6 +17316,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -15945,6 +17345,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -15969,6 +17374,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -15993,6 +17403,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -16017,6 +17432,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -16041,6 +17461,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -16065,6 +17490,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -16089,6 +17519,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -16113,6 +17548,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -16137,6 +17577,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -16161,6 +17606,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -16185,6 +17635,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -16209,6 +17664,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -16233,6 +17693,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -16257,6 +17722,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -16281,6 +17751,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -16305,6 +17780,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -16329,6 +17809,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -16353,6 +17838,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -16377,6 +17867,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -16401,6 +17896,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -16425,6 +17925,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -16449,6 +17954,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -16473,6 +17983,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -16497,6 +18012,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -16521,6 +18041,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -16545,6 +18070,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -16569,6 +18099,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -16593,6 +18128,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -16617,6 +18157,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -16641,6 +18186,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -16665,6 +18215,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -16689,6 +18244,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -16713,6 +18273,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -16737,6 +18302,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -16761,6 +18331,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -16785,6 +18360,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -16809,6 +18389,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -16833,6 +18418,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -16857,6 +18447,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -16881,6 +18476,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -16905,6 +18505,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -16929,6 +18534,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -16953,6 +18563,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -16977,6 +18592,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -17001,6 +18621,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -17025,6 +18650,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -17049,6 +18679,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -17073,6 +18708,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -17097,6 +18737,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -17121,6 +18766,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -17145,6 +18795,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -17169,6 +18824,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -17193,6 +18853,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -17217,6 +18882,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -17241,6 +18911,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -17265,6 +18940,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -17289,6 +18969,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -17313,6 +18998,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -17337,6 +19027,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -17361,6 +19056,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -17385,6 +19085,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -17409,6 +19114,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -17433,6 +19143,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -17457,6 +19172,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -17481,6 +19201,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -17505,6 +19230,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -17529,6 +19259,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -17553,6 +19288,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -17577,6 +19317,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -17601,6 +19346,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -17625,6 +19375,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -17649,6 +19404,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -17673,6 +19433,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -17697,6 +19462,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -17721,6 +19491,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -17745,6 +19520,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -17769,6 +19549,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -17793,6 +19578,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -17817,6 +19607,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -17841,6 +19636,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -17865,6 +19665,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -17889,6 +19694,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -17913,6 +19723,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -17937,6 +19752,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -17961,6 +19781,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -17985,6 +19810,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -18009,6 +19839,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -18033,6 +19868,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -18057,6 +19897,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -18081,6 +19926,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -18105,6 +19955,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -18129,6 +19984,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -18153,6 +20013,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -18177,6 +20042,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -18201,6 +20071,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -18225,6 +20100,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -18249,6 +20129,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -18273,6 +20158,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -18297,6 +20187,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -18321,6 +20216,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -18345,6 +20245,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -18369,6 +20274,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -18393,6 +20303,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -18417,6 +20332,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -18441,6 +20361,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -18465,6 +20390,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -18489,6 +20419,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -18513,6 +20448,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -18537,6 +20477,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -18561,6 +20506,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -18585,6 +20535,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -18609,6 +20564,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -18633,6 +20593,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -18657,6 +20622,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -18681,6 +20651,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -18705,6 +20680,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -18729,6 +20709,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -18753,6 +20738,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -18777,6 +20767,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -18801,6 +20796,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -18825,6 +20825,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -18849,6 +20854,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -18873,6 +20883,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -18897,6 +20912,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -18921,6 +20941,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -18945,6 +20970,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -18969,6 +20999,11 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -18993,8 +21028,13 @@
           <t>c__Clostridia</t>
         </is>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/p__Firmicutes_A.xlsx
+++ b/outputs/p__Firmicutes_A.xlsx
@@ -4281,7 +4281,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>reject</t>
+          <t>c__Clostridia</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>reject</t>
+          <t>c__Clostridia</t>
         </is>
       </c>
     </row>
@@ -17289,7 +17289,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>reject</t>
+          <t>c__Clostridia</t>
         </is>
       </c>
     </row>
@@ -18304,7 +18304,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>reject</t>
+          <t>c__Clostridia</t>
         </is>
       </c>
     </row>
@@ -19203,7 +19203,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>reject</t>
+          <t>c__Clostridia</t>
         </is>
       </c>
     </row>
@@ -20479,7 +20479,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>reject</t>
+          <t>c__Clostridia</t>
         </is>
       </c>
     </row>

--- a/outputs/p__Firmicutes_A.xlsx
+++ b/outputs/p__Firmicutes_A.xlsx
@@ -18,6 +18,8 @@
     <sheet name="f__Lachnospiraceae-t-p" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="g__Ruminococcus_E-t-p" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="glv-t" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="f__Atopobiaceae-t" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="f__Bacteroidaceae-t" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24022,6 +24024,3994 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>c__Thermoanaerobacteria</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG440</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6406490425222783</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.9064410090884217</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1.574433524198292</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>hRUG890</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4841594473841412</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.6120904290796859</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-2.23059771591057</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG836</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1680428149852156</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.54608098578991</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2.08761096469744</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG025</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.091089175015729</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.591744200257415</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-3.645793579885506</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG729</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4603607069066853</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.135784837512113</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-2.978531835652038</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG768</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.179543853595692</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.642961096417074</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-3.591956417841797</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG721</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.039606867930353</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.182301375189015</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-3.942796040393041</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG161</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.134297298454651</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.066651831591328</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-3.006521406235262</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG077</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.676864237157919</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.14574335619803</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1.351084614761118</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG725</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5379635528299724</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.005811111725179</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-3.251344621127686</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG162</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.084675939410481</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.446016979926732</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-2.137414763368444</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG654</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.280974769234793</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.6681941397100567</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-2.683889535008803</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG002</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.3698425692241784</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.7107728730225322</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.505626815446331</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG778</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4693089404211968</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.7802475286555143</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-1.666877456064886</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG032</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.3108321949931385</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.4185516599046301</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-2.963638029663181</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG001</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8167476706522949</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.8711735276102107</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-3.501154804940176</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>hRUG864</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.58929510992878</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.5674784736505323</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-2.796927135810609</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG078</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6435238316471245</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.044071136494786</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-2.68516821677459</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG004</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.2456068803023903</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.1071894774994366</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-4.425759100843063</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG014</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7359204582400267</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.156675512552423</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-2.398409849670302</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG804</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7714180857288118</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.202919724534421</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-3.088384196873655</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>hRUG891</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8028102760234985</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.034679052518823</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-3.045725833913038</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E165"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>c__Thermoanaerobacteria</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG515</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7688240058761912</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.017411818539629</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1.263933778502696</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG212</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7207540169913381</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.231427841349001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.1326035182413524</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG062</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.720227541822927</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.168666260950314</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.543501388146097</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG419</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.284688236255718</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.8131875953254142</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.4017413747751534</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>hRUG908</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6095784192135001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.009780128525346</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.6218124417182741</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG459</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.068825532431465</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.565231062718284</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.322669343919359</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG577</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7291915768595493</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.000915372088151</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1.156707838991512</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG112</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3948222777676086</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.6499305750948181</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.314266928848663</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG431</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8319393677712771</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.110378708592893</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1.248133803977117</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG446</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.009303989711993</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.413897431533726</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.555395498463553</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG318</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5435316553574822</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.03579686802836</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.060169748526908</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG483</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.2691288770320363</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.7034228859516584</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1.796522784061465</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG838</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7819157022415991</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.205700265214865</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.325701694768697</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>hRUG906</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7103345534943948</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.215513101366782</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.6432714194616312</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG339</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8245480390695985</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.267881768677303</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.9749462120199637</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG500</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4756368229242691</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.6920829402166143</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-2.048950252227823</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG273</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.4914137064518575</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.8793289068598603</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-1.398579949005864</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG307</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9314380104745941</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.387496205991747</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.9597818083664157</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG397</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.388004600686387</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.7373378927225894</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-1.466605199789141</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG569</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2012755727166606</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.6075686316105041</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.7543529845082003</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG474</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5945901721739427</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.9448953617666827</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.277632148950787</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>hRUG897</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4523811860795703</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.7705426660916287</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1.086722707194143</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG116</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6674064591348982</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.047347194672694</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.9255128532329348</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG367</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.7126645518447251</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.9460056527988155</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1.643062989362692</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG144</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3232382397794655</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.6570209658183603</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-1.063797287980337</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG423</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4723244720056221</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.7742989681834678</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.8001435950775306</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG476</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.614195116093371</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.8258249248215265</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-1.217768378280416</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>hRUG858</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.045226362477586</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.561552658036471</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.4321493586615341</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG168</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6125751487509568</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.091799477105596</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.8727338515977867</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG242</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4213401417829158</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.8649583284345959</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-1.76398054600963</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG586</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1803921048382633</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.4886322872093103</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1.811026786413255</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG106</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.4129697055397942</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.8760700238288276</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.6234709821666282</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG765</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5891440479939741</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.048868827192099</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.7556602350490859</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG259</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5712733918659691</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.939718788936978</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-1.222242126482053</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG488</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.767510173762735</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-1.141113775247934</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-1.089491136814171</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG085</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5542078444643534</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-1.074813754344197</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-1.180227100711082</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG647</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4379123563275755</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.7907109233311168</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-1.346628719041578</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG733</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.429907710559811</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.628670426572624</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-2.287577124431772</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG064</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4854562307668078</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.9748384532566194</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.5891013177784474</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG598</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.3907069683637032</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.7569276026775249</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-1.73471501337111</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG022</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4937462656967424</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-1.036862369976105</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.8712005363279919</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG849</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1.018048988107665</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1.28706198823898</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-1.915680739689226</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG216</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.8649421110575134</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-1.063110367103504</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-2.025305888174003</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>hRUG893</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.7703917258771297</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-1.19486003527972</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-1.028706802300676</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG200</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.6870402746390728</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-1.114602018112642</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-1.058177896627825</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG309</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.469328342124586</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-0.8362824577534643</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-1.242402081920595</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG550</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8367693251679377</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-1.278320659572552</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.4114175071710029</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG782</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5981011049565846</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-1.076423948594581</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.6642463645536814</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG003</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.6758023991658032</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1.028612829254291</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-1.184879192852024</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG535</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1.003466910318125</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-1.38999503647943</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-1.566362828454247</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG315</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.3152002380273116</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-0.4875117007479578</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-1.501647001883186</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG108</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5765163271444433</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-0.9614914376587234</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.7486118180767913</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG541</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.2151956642624703</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.6380410467126274</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.4425293711232404</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG461</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.2528370828903935</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-0.6709220014093086</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0.5961655430813544</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG546</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.6289367993061534</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-1.012954873682071</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.7948043480411281</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG195</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.7299533984716361</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-1.221048908201823</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.7368431145274066</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG660</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.2680310143150467</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-0.6144645623698397</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-1.492437400962623</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RUG280</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.732267881315289</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-1.002625064006962</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-1.756729796456463</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RUG614</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5931486648537889</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-1.006085783779346</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-1.267215900102909</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RUG742</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.587680371453755</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-0.8231569454333937</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.8800255899593145</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RUG457</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8197222638054763</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-1.223324855474903</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-1.077218977528213</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RUG036</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1.074242432827896</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-1.418417208080264</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-1.396519908776703</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RUG046</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.4527803800184005</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-0.7353946502452202</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-1.203778113674235</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>RUG445</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.01058445052795593</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-0.2434246993611724</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-1.594022863094005</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>RUG435</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.6024330501288464</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1.049720720769925</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-1.010217255477008</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RUG828</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.403749106001619</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.8290567029248396</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.3710610093406445</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RUG172</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.6621236178105397</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-1.158839813856505</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.7330283691338912</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>RUG589</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5368404817132315</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-0.9456207353262297</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-1.030012442716243</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RUG169</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.7633343306304451</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-1.314419745173442</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.8391642619342177</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RUG030</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5069367867548076</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-0.8450940217917821</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-1.370589200735259</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RUG301</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.1869395098061782</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.4223791612798934</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-1.123299521362834</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>hRUG878</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.6052415964671468</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.9600028316236685</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-1.123568471916261</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RUG037</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5464081934009146</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.8290390024272719</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.659285198482727</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RUG711</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.541395828547533</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.8851241703999557</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-1.584416733429874</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>RUG788</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.8115389589125043</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-1.094363890915973</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-1.504047950109233</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RUG210</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.3626920521325361</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.6257740923574995</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-1.222529717779339</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>RUG176</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5370210766123495</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0.9386513090732825</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.9511483753256832</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>RUG047</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.6520292414377057</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-0.9124976381273862</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-1.365117777822042</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>RUG310</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5418682110172902</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-0.7457256361623779</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-1.692274111909785</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>RUG405</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.8260284482935715</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-1.479494857119271</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.4135140237843789</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>hRUG883</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1.073818659920124</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-1.36535885274947</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-1.182675255938068</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>hRUG905</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.6941083727583293</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-1.362416732200797</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.3469227836523743</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>RUG192</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.4550789660149912</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-0.8048259084580055</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-1.796738381143431</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>RUG697</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.6764691881742819</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-0.9138455749068377</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-1.196975000918352</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>RUG562</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.626514878949693</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-0.8799392229591878</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-1.463391079234943</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RUG292</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.8644251278790461</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-1.084432475655332</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-1.958102503157291</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>RUG376</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.2753147774784432</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-0.6415301794675473</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-0.7075614697849164</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>RUG070</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9098250560196036</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-1.332213557291638</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-1.307868879200164</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RUG473</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.6327106744206399</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-0.6858681164608731</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-1.629846027831525</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>RUG302</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.6161222364396332</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-1.04750790451577</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-0.9742749118989863</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>RUG233</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.544157924439746</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-0.9382647016014516</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-1.47078318910884</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>RUG232</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5750427577008929</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-0.9363931994067165</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.84858459022584</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>RUG207</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.7418669982027457</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-1.078654012944074</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-1.91845948155775</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>RUG143</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.6109787931890382</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-0.9728855974281186</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-1.524907064987975</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RUG219</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.4262931906088419</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.9100288500974361</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-0.7172788342041654</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>RUG139</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.4192848370880061</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.9292741927726947</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-0.5325749959792925</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>RUG086</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.696667512681007</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-0.9691136982773202</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-1.431301172575369</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>RUG582</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.5284739809129849</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-1.005698826554141</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0.8553849197028888</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>RUG418</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.3096922981596986</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0.6336343526801719</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-1.287267671801462</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>RUG685</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.7886295931906336</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-1.184534320142902</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.7917957086335341</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>RUG759</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.1511695872751039</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-0.4745201898093355</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.6923129014619226</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RUG691</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.564998871432922</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-0.6916023833073384</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-1.744862145912819</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>RUG383</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.8479918336167306</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-1.523593768156594</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-0.6556087831036389</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>RUG056</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.8472968758523838</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-1.433346135664372</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-0.7258527266820167</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>RUG124</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7345546861511214</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-1.049971214661737</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.8929226687645179</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>RUG160</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1.037508297736494</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-1.426850226539459</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-1.083441630114292</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>RUG624</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.402615167793569</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-0.6985848608876813</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-1.007982296413078</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>RUG209</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.8379055668967186</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-1.223302570628552</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-1.218890293494997</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>RUG812</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.533567306961913</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-0.8042577079416501</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-1.532527814737491</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>RUG602</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.9289645230057136</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-1.301466504545085</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-1.497614544860752</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>RUG751</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.8895947119411773</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-1.18516166149259</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-1.69174408058295</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>RUG101</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7744321285650949</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-1.232381292265601</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-0.518454284022841</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>RUG693</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.9016319302163661</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-1.246117675442663</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-1.00715418405119</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>RUG749</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.3274145169382114</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-0.4460793560726503</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-1.356768697429119</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>RUG107</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7765069017222179</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-1.220656841556192</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-1.62764051828017</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>RUG063</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.3694343397345132</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-0.6998996865482618</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-0.3725520683172137</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>RUG178</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.549861701549509</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-0.9078101999065844</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-1.368812119599396</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>RUG414</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.3335842758959678</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-0.5517337060418331</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-1.410787200651513</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>RUG058</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.5586114529109136</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-1.130176636980153</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-1.508733144041383</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>RUG771</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.5709629278361137</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-0.9864991626583223</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-1.071539462912251</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>RUG837</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.5301178531223406</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-0.7761281955207459</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.7212185226290293</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>RUG657</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.6133236621900011</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-0.9566037910676057</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0.8411557232107637</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>RUG174</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.4165592909322646</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-0.8806749523297928</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-0.2567176632615427</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>RUG355</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.534920607144702</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-0.8534189116732558</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-0.9992752771801839</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>RUG827</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.6431309192953775</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-1.096874836436231</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-1.942918963299063</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>RUG795</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7732241124982551</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-1.021990794153039</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-0.959579547710337</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>RUG843</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.6658851284050243</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-0.7832583495330768</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-1.98665719244534</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>RUG689</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.1504056709886188</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-0.4311235851033771</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-1.173344918559466</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>RUG126</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.722888962482202</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-1.133876037953567</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-1.173024137522447</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>RUG451</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1.1444026900011</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-1.399404476339003</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-1.9804536999914</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>RUG536</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.5433039631462639</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-0.9239732611261412</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-1.238821889610444</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>RUG606</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.3042095879193151</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-0.6034615079713798</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-1.221531008890452</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>RUG766</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.4897502167130144</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-0.7830137660379637</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-1.223122352330348</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>RUG059</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7394598386239877</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-1.264846901560539</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-0.9223320112127313</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>RUG753</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.5264531791757118</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-0.9554185169404722</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-0.5986053632736434</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>RUG744</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.1666772217508123</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-0.4280950968216888</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-0.933086793189435</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>RUG450</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.8072924509990815</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-1.210427575393921</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-0.9595708471521753</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>RUG071</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.8823630391585826</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-1.312175674549624</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-0.7976059953377835</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>RUG295</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.6737496717321272</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-1.227502753015948</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-0.8777880493305112</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>RUG620</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.356377187236995</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-0.7151660171941359</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-1.778367756233739</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>RUG785</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.592825960234348</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-0.9478985630759001</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-0.8094307298147468</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>hRUG879</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.5087885910913387</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-0.9475128388734165</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-0.4517978517036907</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>RUG249</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7337873209800051</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-1.125576818441764</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-1.063732284902631</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>RUG668</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7939953003821856</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-1.175301675257883</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-0.9757461857807684</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>RUG430</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.8835890677824939</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-1.426931280303853</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-0.880014952618466</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>RUG424</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.6000344173259696</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-0.9690493144128011</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-1.537725555869781</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>RUG224</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.378815997619267</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-0.8425744863888672</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-0.5029118672623957</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>RUG443</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.5114660195548353</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-0.8852636641120647</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-1.737451504438475</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>RUG136</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7957591862233507</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-1.364857119885074</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-0.5785033405751023</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>RUG599</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7096227899998782</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-0.9231810001571803</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-0.8673722603158108</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>hRUG913</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.4530593290898822</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-0.7976498215554307</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-1.147547909637994</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>RUG204</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.5385202307118593</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-0.7690427334116285</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-1.644927085057816</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>RUG786</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.2845508249494691</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-0.5199630717117365</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-1.592961942845044</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>RUG533</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.3139688060685733</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-0.5661960485746251</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-1.431953171817955</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>RUG413</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.113242308631591</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-0.4656971154079163</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-1.18593203573654</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>RUG839</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.5091998808973937</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-0.8553845194243055</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-1.201367494290442</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>RUG403</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.3030674848203971</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-0.7197554753732887</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-0.6682719881404278</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>RUG137</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.4367834999592351</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-1.020507324416064</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-1.174443630837486</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>RUG504</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1.003413908009646</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-1.286192309175561</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-1.331670084642938</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>RUG571</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.5452305986052396</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-1.003262046497524</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-1.036451364233642</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>RUG317</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.1542808911302755</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-0.5509951782553577</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-1.172572509774602</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>RUG815</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.3749029246338904</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-0.7140135578619322</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-1.037773789363017</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>RUG069</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.690620310074593</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-0.9980970303320579</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-1.12922267858307</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>RUG073</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.4678412298411864</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-1.016385384023339</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-0.6899643969355875</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/outputs/p__Firmicutes_A.xlsx
+++ b/outputs/p__Firmicutes_A.xlsx
@@ -20,6 +20,7 @@
     <sheet name="glv-t" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="f__Atopobiaceae-t" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="f__Bacteroidaceae-t" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="p__Firmicutes_A_pred-t" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28012,6 +28013,4163 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E197"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>c__Thermoanaerobacteria</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG518</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.478017942840876</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.985481478671827</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-3.047524966429975</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG427</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.80208915796742</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.277156087697361</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-2.023649031115135</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG491</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.689180675532619</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.678430023916785</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-3.901630373769605</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG235</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.488684809770352</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.775328622102692</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-3.679604076636336</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG767</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.7683227877909032</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8069309710778592</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-2.760963129248181</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG313</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.022195897441339</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.34071066760105</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-2.712472454145332</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG320</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5444249105177835</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.7930399622507143</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-2.296116638447091</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG464</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.07382697663643</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.516902443085231</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-2.673045328434037</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG299</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.383157363226186</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.143272154391624</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-3.953041449612063</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG157</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4353244953572322</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.118104848667258</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.777094239162705</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG609</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5094535807462804</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.03891935128983</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-3.486865039450849</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG158</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.980575388677513</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-2.555133354997101</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-3.261815876394977</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG381</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.508637195538046</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.967076016052972</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-2.737968218802511</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG096</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.257030915522778</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.561293923728254</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-2.914467752105746</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG557</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7193917475708262</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.129964745526671</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-2.311783858943031</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG846</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.082886097694929</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.440309537695769</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-3.025403903771697</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG271</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.219421165533719</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.707469361630976</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-4.538020899628838</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG027</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.037803520010332</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-2.389400744086996</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-2.944941172097143</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG215</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.248503977491983</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.692235008520483</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-3.430418945338288</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG248</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.252449567074291</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.443610468919146</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-2.29917789876272</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG463</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3589643117230544</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.419543977809889</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-5.074254346682824</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG196</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5202552740777643</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.7969808896295848</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-2.442076110614851</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG305</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9900900734855771</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.219942674498459</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-2.025067942040841</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG138</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8972262009137205</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.308450038896044</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-3.400077591704219</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG185</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.905654262483698</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.638242042922649</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-2.645803278664991</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG226</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.109867435767963</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.423315757906794</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-2.435012509211239</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG563</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.5265510688167976</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5921725017806323</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-4.192750780044152</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG475</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.062955159396174</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.348717173423466</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-3.330091833609921</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG167</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7605466741989865</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.073495466211833</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-2.008249879626674</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG813</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.01481476249081</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.208615116281708</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-1.79169820509851</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG604</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8378318431820895</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-1.237665544456811</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-2.213345768556261</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG251</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.155518166237054</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1.527072635184553</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-2.407693293895217</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG223</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.172796593908081</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.510348550110157</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-2.875332346378691</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG303</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.481997708692625</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-2.210820353217999</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-4.281600385285064</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG735</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.275848557141716</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-1.771384128305699</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-2.68101181954985</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG342</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1.041935579627725</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-1.52163421505291</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-2.730189653777197</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG149</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.433892607658358</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-1.952150190349585</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-3.419426438696656</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG366</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9868616263077271</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-1.348473340986764</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-2.111525315790368</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG044</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9137674226790017</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-1.211267770087957</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-1.357623572815929</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG008</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.865535325866221</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-1.076240714832756</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-2.463432136522877</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG154</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1.749283820152733</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-1.967337744276423</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-5.075323161356972</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG147</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7919777932429349</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.9653626913614304</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-1.903198177866095</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG607</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.30160901873918</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-1.750529671425908</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-1.265856932131881</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG350</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.3474465043603782</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.2542435761576394</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-2.394082816924239</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG471</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5547209962795906</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.9825368305241551</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-2.279878273340796</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG543</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.351268983522401</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-1.821031138224862</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-3.871803766195375</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG566</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9052289437566815</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-1.302143373817195</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-3.096712649587761</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG688</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8913491977002517</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-1.217777415585027</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-2.209331169388363</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG285</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.447634135479897</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1.733860184203847</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-2.163376583399279</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>hRUG855</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1.068595653248184</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-1.392856838456138</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-1.709145455901137</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG015</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1.408793419378592</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-1.876481748266966</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-2.119862749441003</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG775</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1.492768729692326</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-1.679953100167657</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-2.360398919026968</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG578</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5318050434504821</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.8362805829737033</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-1.414297457275056</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG601</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5371602420454051</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-1.202471293529503</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-2.976211540049559</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG612</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1.173754712502237</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-1.601681501004401</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-2.508165234410099</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG665</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1.336864149927953</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-1.796041965132861</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-5.048399579178934</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG091</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1.030435230116201</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-1.969667298776048</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-1.69451525929839</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RUG608</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.8974635767669271</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-1.13857108062748</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-2.537879333915419</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RUG288</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.4022191569347417</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-0.800825984021333</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-2.151156535933846</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RUG789</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5031270476502671</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-0.7368801411389805</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-3.771254616060052</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RUG009</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1.780486083252916</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-2.302489634698405</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-3.028212358269455</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RUG088</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1.17778656919853</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-1.556293144045688</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-3.008965998177355</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RUG596</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.4725576145291998</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-0.8136215168443474</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-1.624174824055861</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>RUG189</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1.112267383413515</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1.524974773544257</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-2.795989420089769</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>RUG104</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9031741720583698</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1.653895083823227</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-2.33509259760844</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RUG425</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1.103416197813993</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-1.60989924797823</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-1.33478980513208</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RUG098</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1.693437032128537</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-2.151665178121045</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-2.663569912939974</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>hRUG896</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1.350479259311256</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-1.889509289667818</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-1.552006501479257</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RUG081</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1.152811966275152</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-1.530652233473292</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-2.850727793734491</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RUG635</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1.390567201932559</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-1.718658928243473</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-1.514673419267236</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RUG764</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1.206338799945582</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-1.306676485000784</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-2.171273162854706</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>RUG327</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1.341817997189752</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1.632141595047116</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-3.186217533309224</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RUG845</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1.16214081479421</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-1.472716698525688</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-3.702378018546467</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RUG341</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1.514897917465703</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-1.946349287292199</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-4.483738833514725</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>RUG365</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1.04692035923256</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-1.703409648380589</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-3.199443236112304</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RUG669</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1.428985996033135</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-1.822984729760982</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-2.958669797611366</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>RUG175</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5811659240679565</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0.9738773332294985</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-3.117733630164253</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>RUG511</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1.16540143718058</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-1.397838712024834</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-2.450610148322683</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>hRUG903</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1.270735222241252</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-1.646236698933757</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-2.65750062322457</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>RUG294</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1.383461154324939</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-1.775921683154818</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-5.600751665517136</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>RUG814</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1.068930886887174</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-1.413970245959893</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-2.782917318779945</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>RUG230</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1.270704433532338</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-1.681895453352463</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-3.728132039319604</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>RUG796</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.8784762723615337</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-1.265222630564392</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-2.18487417603763</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>RUG811</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1.083561000477185</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-1.54728094926845</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-2.296903143972179</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>RUG738</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1.109957012591394</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-1.424440215709062</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-2.115398628863678</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RUG177</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.7406497758561301</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-0.8012029086277139</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-3.666538436332021</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>RUG247</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9638615374634999</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-1.375375865380475</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-1.427841797746261</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>RUG809</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.722818299930992</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-1.885636728723226</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-3.100180186734675</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RUG268</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1.238656152169781</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-1.922946815409708</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-2.484944466043917</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>RUG080</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.9304450135829393</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-1.14688548720367</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-1.923284213314381</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>RUG439</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1.602003394794769</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-2.147950727658203</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-5.732252647294334</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>RUG460</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.7834203169606596</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-1.197654805599915</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-2.001550375185348</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>RUG115</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1.733702560185685</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-2.058659368183351</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-3.207852441725648</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>RUG041</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.5304290621891901</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-0.8384575992142892</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-2.606134256549514</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RUG272</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1.049181441021775</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1.504044654488834</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-2.108975812248761</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>RUG132</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9463408659428512</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-1.393075355036266</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-2.048461877441276</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>RUG626</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.8285102674248184</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-1.281054283009702</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-2.124519067763643</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>RUG267</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1.100332411187347</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-1.380412864371692</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-2.60102843678367</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>RUG529</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1.049883482065024</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-1.457617155537279</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-3.19565629954527</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>RUG623</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.8854160548010545</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-1.06202746060577</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-2.466799003613122</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>RUG757</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1.553622381626491</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-1.866605640221731</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-4.524502682894941</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RUG321</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.452765282663168</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-0.5612446343226539</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-2.107965538161979</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>RUG825</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1.583215700443818</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-2.087443366422065</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-2.57921748224167</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>RUG822</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7106930988156552</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-1.170196722667395</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-1.578087802148213</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>RUG798</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1.578210119191167</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-2.30554208013613</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-4.207379569890334</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>RUG180</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.8035778947632629</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-0.9969759379881271</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-3.394041437450022</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>RUG183</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1.206404075894137</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-1.726078352832147</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-2.141492713052877</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>RUG694</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1.142778129562139</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-1.474521948769182</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-2.252840268966303</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>RUG198</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.9467473980102601</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-1.201647575380898</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-3.274120464108903</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>RUG573</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2.103993442215048</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-2.447035680885463</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-3.636239557129998</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>RUG671</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1.995132822525248</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-2.450546862330324</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-3.003577505994839</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>RUG099</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.261470913235386</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-0.684638212381113</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-1.56661401838006</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>RUG333</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7986525166017154</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-1.212478398872596</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-2.848097822488743</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>RUG322</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1.072609051794801</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-1.261674791916121</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-3.818829574930684</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>RUG824</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1.618175594472073</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-1.968015699427313</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-2.122896429901986</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>RUG449</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.8282963180905806</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-1.202846739246571</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-2.901782599350976</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>RUG128</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1.394397265142959</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-1.990654541457347</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-2.314349675706762</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>RUG637</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1.565236154354042</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-2.093237117039017</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-5.377098160160364</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>RUG222</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1.659022973354195</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-2.009808233534836</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-2.913843590091888</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>RUG453</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2.188728826961102</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-2.814535739000772</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-7.161817699845549</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>hRUG882</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.4620200810041178</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-0.7509709023714047</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-1.170763662906812</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>RUG217</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1.181471086296914</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-1.692500791363746</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-4.055305959823562</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>RUG542</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1.153546235372614</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-1.740295705907688</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-4.593595376240081</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>RUG290</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.8935548624877133</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-1.303299705016178</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-3.4183067766164</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>RUG512</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1.075627130181645</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-1.39331550530242</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-2.200164604242676</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>RUG670</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1.868998452637233</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-2.466182429185297</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-2.256620419002723</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>RUG850</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.6824005246201673</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-1.011916925820568</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-1.300156014885162</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>RUG452</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.5001832259440979</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-0.6786121138983774</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-4.298251964197839</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>RUG010</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1.95146578796992</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-2.429196595302859</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-3.247210024587547</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>RUG213</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>2.079438330677231</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-2.66214209481035</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-3.059922659330911</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>RUG561</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1.041813779704811</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-1.408850105287067</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-1.868255209474756</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>RUG296</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1.655528367159219</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-2.934144947499173</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-3.216939136749307</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>hRUG856</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.9357383899972146</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-1.306375264400897</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-2.509267231514882</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>RUG484</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.9948415583339389</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-1.394710472633879</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-2.268630917979454</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>RUG159</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.469124536317104</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-0.8742723451886919</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-1.410592924798207</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>RUG007</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.6818689487260712</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-1.05287161622948</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-1.772911036073116</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>RUG806</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1.013082722873297</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-1.167714752206811</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-3.587677695802927</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>RUG368</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.8869871518636595</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-1.137524651196722</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-3.80082761824563</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>hRUG859</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1.192889069647751</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-1.565668238173074</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-1.940706949140962</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>RUG681</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1.418377714052809</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-1.78488075285527</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-1.809357953371493</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>RUG835</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1.396042687298584</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-1.803430478354215</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-4.818393298975908</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>RUG762</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1.133611260556261</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-1.332645426983621</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-2.61635045342781</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>RUG074</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.812081810397554</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-1.093109889305267</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-2.833893790173394</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>RUG105</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1.252750893157184</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-1.596343407718414</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-3.617243002058352</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>RUG726</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1.056059217169564</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-1.494614627580152</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-2.92519177505941</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>RUG678</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1.07924777354864</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-1.353367076222382</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-3.965129532179811</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>RUG655</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1.016895477289695</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-1.373879584957328</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-1.017631485604911</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>hRUG851</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1.435941431111001</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-1.608286229639259</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-2.250253764206871</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>RUG110</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1.69571538531826</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-2.229444195160193</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-2.151101575948335</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>RUG468</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1.368029574355053</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-2.134041839651563</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-4.712858554038664</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>RUG687</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1.240878649813659</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-1.573252861046587</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-2.099807832604444</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>RUG816</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1.178079219923799</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-1.714903988216741</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-1.540343404036034</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>RUG581</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1.00528628063644</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-1.551495439088578</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-3.648937877105741</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>RUG297</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1.196141651788904</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-1.633467912085077</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-1.651769793268628</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>RUG527</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1.109616514117702</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-1.485881001699387</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-2.723780123283897</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>RUG502</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.5696466288476698</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-1.009927723927699</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-3.692703106971995</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>RUG277</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1.59638174696889</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-1.965850836786994</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-4.850754313559715</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>RUG447</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.8639492657445759</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-1.297085215178444</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-2.473909146826918</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>RUG364</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7969306236598693</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-1.065884153151003</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-2.328368549042143</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>RUG146</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>-0.5912981953891325</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.5917171411057131</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-2.931361782138445</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>RUG220</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9088776617906443</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-1.343544288129958</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-2.780624707211266</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>RUG109</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1.304463648832865</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-1.498187539131677</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-4.000166213697363</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>RUG592</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1.118354595779156</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-1.432052104474678</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-2.566515869997791</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>RUG692</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7636552589392699</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-1.360215777129037</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-1.645512736806191</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>RUG231</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1.165845467808038</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-1.349963334714336</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-2.632214609452791</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>RUG674</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7752077206055443</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-1.128858869962021</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-3.446521658760016</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>RUG155</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1.227675056519495</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-1.584644942028254</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-3.916645092027979</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>RUG393</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1.091894527165393</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-1.781526070186338</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-1.971250648277845</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>RUG218</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1.529493747503027</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-2.051633621297665</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-4.842003402171215</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>RUG291</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1.592352031720567</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-1.924627169083236</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-2.821518495847633</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>RUG781</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1.458967078053471</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-1.540761113669338</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-2.43981711018904</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>hRUG899</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1.042513151702474</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-1.356486762895722</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-1.567012403550443</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>RUG718</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1.301934902394551</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-1.79966256010437</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-2.517825847488389</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>RUG166</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.4461177450557517</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-0.7544981900244218</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-3.536326977608589</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>RUG066</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1.728026083985733</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-2.536013062333068</v>
+      </c>
+      <c r="D176" t="n">
+        <v>-2.404445359819206</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>RUG426</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1.411849173825986</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-2.082316123892674</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-4.906347104723477</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>RUG270</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1.504748718133047</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-2.02263658541575</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-4.178965787800626</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>RUG834</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.9293033327672108</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-1.479393473350074</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-2.622896967046008</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>RUG547</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>-0.8276922095231886</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.7633412427876531</v>
+      </c>
+      <c r="D180" t="n">
+        <v>-1.431439394897146</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>c__Clostridia_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>hRUG886</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.931356615198055</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-1.294628969202035</v>
+      </c>
+      <c r="D181" t="n">
+        <v>-2.185766563743458</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>RUG370</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.9178203504150275</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-1.361657008662476</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-3.283109355051599</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>RUG817</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7281318209075597</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-0.9421121103599038</v>
+      </c>
+      <c r="D183" t="n">
+        <v>-2.650627514456195</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>RUG522</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1.096904702831907</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-1.459289341007871</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-2.664089039224519</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>RUG135</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.9068258084966965</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-1.440726197813227</v>
+      </c>
+      <c r="D185" t="n">
+        <v>-3.529236221526522</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>RUG509</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1.046515532625713</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-1.529283541829618</v>
+      </c>
+      <c r="D186" t="n">
+        <v>-3.785487816431163</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>RUG498</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1.390523752458391</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-1.785830536608432</v>
+      </c>
+      <c r="D187" t="n">
+        <v>-4.680351924399321</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>RUG391</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1.002321703942513</v>
+      </c>
+      <c r="C188" t="n">
+        <v>-1.306024790293091</v>
+      </c>
+      <c r="D188" t="n">
+        <v>-3.170056253369398</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>RUG241</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1.082381781377213</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-1.396998446363039</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-2.899879481540022</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>RUG597</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.6729518759626041</v>
+      </c>
+      <c r="C190" t="n">
+        <v>-0.7459542181632586</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-2.68652832658184</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>RUG777</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1.269713371759524</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-1.687452738852804</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-4.277638090505426</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>RUG385</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1.333789969220673</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-1.846334985696306</v>
+      </c>
+      <c r="D192" t="n">
+        <v>-4.259730116043674</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>hRUG867</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7203751712790154</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-1.1921855154652</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-1.505559471011895</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>RUG060</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0.8345142806864705</v>
+      </c>
+      <c r="C194" t="n">
+        <v>-1.153650297365175</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-3.247872010363543</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>RUG221</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1.623170157603455</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-2.266652478602296</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-6.287373741880267</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>RUG821</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0.04573235481933361</v>
+      </c>
+      <c r="C196" t="n">
+        <v>-0.2724771613529219</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-2.314518195839417</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>RUG394</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1.299660530183554</v>
+      </c>
+      <c r="C197" t="n">
+        <v>-1.683785366410941</v>
+      </c>
+      <c r="D197" t="n">
+        <v>-3.062116870933547</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>c__Clostridia</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
